--- a/academycity/data/avic/datasets/excel/conference/output/GDP/1992_BirthRate_o.xlsx
+++ b/academycity/data/avic/datasets/excel/conference/output/GDP/1992_BirthRate_o.xlsx
@@ -3143,7 +3143,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -8857,7 +8857,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -12163,7 +12163,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Czechoslovakia</t>
+          <t>Czechia</t>
         </is>
       </c>
       <c r="C147" t="n">
